--- a/data/vcomp.xlsx
+++ b/data/vcomp.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,21 +413,6 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>FLAVO</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -465,15 +450,6 @@
       <c r="K2">
         <v>42465.15878571066</v>
       </c>
-      <c r="L2">
-        <v>0.005291490195388214</v>
-      </c>
-      <c r="M2">
-        <v>0.0001164042302882574</v>
-      </c>
-      <c r="N2">
-        <v>43.72253892731464</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,15 +487,6 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>9.937836675503363E-16</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,15 +524,6 @@
       <c r="K4">
         <v>133956.9595806235</v>
       </c>
-      <c r="L4">
-        <v>8.333175736836395E-05</v>
-      </c>
-      <c r="M4">
-        <v>5.655561022810092E-06</v>
-      </c>
-      <c r="N4">
-        <v>2.498235939227788</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -603,15 +561,6 @@
       <c r="K5">
         <v>4</v>
       </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -649,15 +598,6 @@
       <c r="K6">
         <v>0.5590875515206725</v>
       </c>
-      <c r="L6">
-        <v>0.9960783749757443</v>
-      </c>
-      <c r="M6">
-        <v>0.9879993820184864</v>
-      </c>
-      <c r="N6">
-        <v>0.985916575960741</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -695,15 +635,6 @@
       <c r="K7">
         <v>9.896889989937335</v>
       </c>
-      <c r="L7">
-        <v>416.1342083180663</v>
-      </c>
-      <c r="M7">
-        <v>300.3742808070203</v>
-      </c>
-      <c r="N7">
-        <v>296.4576186642954</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -740,15 +671,6 @@
       </c>
       <c r="K8">
         <v>0.001655583275989451</v>
-      </c>
-      <c r="L8">
-        <v>1.693911462137244E-92</v>
-      </c>
-      <c r="M8">
-        <v>2.730413079079273E-67</v>
-      </c>
-      <c r="N8">
-        <v>1.947834295976333E-66</v>
       </c>
     </row>
   </sheetData>
